--- a/박서연_쇼핑몰기획및설계.xlsx
+++ b/박서연_쇼핑몰기획및설계.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="주요기능 정리" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1314,23 +1315,107 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,90 +1454,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1737,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1762,10 +1763,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="2" t="s">
         <v>178</v>
       </c>
@@ -1816,14 +1817,14 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88">
+      <c r="C2" s="64"/>
+      <c r="D2" s="46">
         <v>44828</v>
       </c>
       <c r="E2" s="38" t="s">
@@ -1844,19 +1845,19 @@
       <c r="P2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="88">
+      <c r="C3" s="52"/>
+      <c r="D3" s="46">
         <v>44828</v>
       </c>
       <c r="E3" s="39"/>
@@ -1871,91 +1872,91 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="46"/>
+      <c r="Q3" s="50"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="88">
+      <c r="C4" s="52"/>
+      <c r="D4" s="46">
         <v>44828</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="59" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="10"/>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="59" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="65" t="s">
         <v>30</v>
       </c>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="88">
+      <c r="C5" s="52"/>
+      <c r="D5" s="46">
         <v>44828</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="46"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="46"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="49"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="66"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="88">
+      <c r="C6" s="52"/>
+      <c r="D6" s="46">
         <v>44829</v>
       </c>
       <c r="E6" s="39" t="s">
@@ -1997,24 +1998,24 @@
       <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="90">
+      <c r="C7" s="52"/>
+      <c r="D7" s="48">
         <v>44839</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
         <v>48</v>
@@ -2022,42 +2023,42 @@
       <c r="K7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="81" t="s">
+      <c r="O7" s="68" t="s">
         <v>53</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="65" t="s">
         <v>47</v>
       </c>
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="75" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="90">
+      <c r="C8" s="52"/>
+      <c r="D8" s="48">
         <v>44839</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="18" t="s">
         <v>57</v>
       </c>
@@ -2067,28 +2068,28 @@
       <c r="K8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="48"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="90">
+      <c r="C9" s="52"/>
+      <c r="D9" s="48">
         <v>44840</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="19" t="s">
         <v>61</v>
       </c>
@@ -2098,28 +2099,28 @@
       <c r="K9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="48"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="69"/>
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="90">
+      <c r="C10" s="52"/>
+      <c r="D10" s="48">
         <v>44840</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="20" t="s">
         <v>64</v>
       </c>
@@ -2129,34 +2130,34 @@
       <c r="K10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="49"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="66"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="89">
+      <c r="C11" s="52"/>
+      <c r="D11" s="47">
         <v>44835</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="77" t="s">
+      <c r="F11" s="57"/>
+      <c r="G11" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="77"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="22" t="s">
         <v>69</v>
       </c>
@@ -2167,37 +2168,37 @@
         <v>66</v>
       </c>
       <c r="L11" s="21"/>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="71" t="s">
         <v>71</v>
       </c>
       <c r="N11" s="21"/>
-      <c r="O11" s="77" t="s">
+      <c r="O11" s="71" t="s">
         <v>72</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="44" t="s">
+      <c r="Q11" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="R11" s="65" t="s">
         <v>68</v>
       </c>
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="89">
+      <c r="C12" s="52"/>
+      <c r="D12" s="47">
         <v>44836</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="24" t="s">
         <v>76</v>
       </c>
@@ -2208,29 +2209,29 @@
         <v>66</v>
       </c>
       <c r="L12" s="23"/>
-      <c r="M12" s="78"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="78"/>
+      <c r="O12" s="72"/>
       <c r="P12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="48"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="89">
+      <c r="C13" s="52"/>
+      <c r="D13" s="47">
         <v>44837</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="26" t="s">
         <v>80</v>
       </c>
@@ -2241,33 +2242,33 @@
         <v>66</v>
       </c>
       <c r="L13" s="25"/>
-      <c r="M13" s="79"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="79"/>
+      <c r="O13" s="73"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="49"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="66"/>
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="88">
+      <c r="C14" s="52"/>
+      <c r="D14" s="46">
         <v>44829</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="77" t="s">
+      <c r="F14" s="57"/>
+      <c r="G14" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="22" t="s">
         <v>85</v>
       </c>
@@ -2278,37 +2279,37 @@
         <v>66</v>
       </c>
       <c r="L14" s="21"/>
-      <c r="M14" s="80" t="s">
+      <c r="M14" s="74" t="s">
         <v>87</v>
       </c>
       <c r="N14" s="21"/>
-      <c r="O14" s="77" t="s">
+      <c r="O14" s="71" t="s">
         <v>72</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="47" t="s">
+      <c r="R14" s="65" t="s">
         <v>83</v>
       </c>
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="90">
+      <c r="C15" s="52"/>
+      <c r="D15" s="48">
         <v>44836</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="24" t="s">
         <v>91</v>
       </c>
@@ -2319,29 +2320,29 @@
         <v>66</v>
       </c>
       <c r="L15" s="23"/>
-      <c r="M15" s="78"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="78"/>
+      <c r="O15" s="72"/>
       <c r="P15" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="48"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="69"/>
       <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="90">
+      <c r="C16" s="52"/>
+      <c r="D16" s="48">
         <v>44836</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="24" t="s">
         <v>91</v>
       </c>
@@ -2352,29 +2353,29 @@
         <v>66</v>
       </c>
       <c r="L16" s="23"/>
-      <c r="M16" s="78"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="23"/>
-      <c r="O16" s="78"/>
+      <c r="O16" s="72"/>
       <c r="P16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="48"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="69"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="90">
+      <c r="C17" s="52"/>
+      <c r="D17" s="48">
         <v>44830</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="24" t="s">
         <v>97</v>
       </c>
@@ -2385,29 +2386,29 @@
         <v>66</v>
       </c>
       <c r="L17" s="23"/>
-      <c r="M17" s="78"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="78"/>
+      <c r="O17" s="72"/>
       <c r="P17" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="69"/>
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="88">
+      <c r="C18" s="52"/>
+      <c r="D18" s="46">
         <v>44830</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23" t="s">
         <v>101</v>
@@ -2416,27 +2417,27 @@
         <v>66</v>
       </c>
       <c r="L18" s="23"/>
-      <c r="M18" s="78"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="23"/>
-      <c r="O18" s="78"/>
+      <c r="O18" s="72"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="69"/>
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="88">
+      <c r="C19" s="52"/>
+      <c r="D19" s="46">
         <v>44831</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
       <c r="I19" s="26" t="s">
         <v>103</v>
       </c>
@@ -2447,154 +2448,154 @@
         <v>105</v>
       </c>
       <c r="L19" s="25"/>
-      <c r="M19" s="79"/>
+      <c r="M19" s="73"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="79"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="49"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="66"/>
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="46">
         <v>44830</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="44" t="s">
+      <c r="F20" s="57"/>
+      <c r="G20" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="59" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="10"/>
-      <c r="O20" s="44" t="s">
+      <c r="O20" s="59" t="s">
         <v>27</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Q20" s="44" t="s">
+      <c r="Q20" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="65" t="s">
         <v>112</v>
       </c>
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="46">
         <v>44831</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="45"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="45"/>
+      <c r="O21" s="49"/>
       <c r="P21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="48"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="69"/>
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="46">
         <v>44831</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="45"/>
+      <c r="M22" s="49"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="45"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="48"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="69"/>
       <c r="S22" s="7"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="46">
         <v>44832</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="46"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="46"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="49"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="66"/>
       <c r="S23" s="7"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="63" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="53" t="s">
         <v>119</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="47">
         <v>44835</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="57" t="s">
         <v>68</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="59" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="10"/>
@@ -2602,92 +2603,92 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="44" t="s">
+      <c r="M24" s="59" t="s">
         <v>71</v>
       </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="44" t="s">
+      <c r="O24" s="59" t="s">
         <v>27</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="Q24" s="44" t="s">
+      <c r="Q24" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="65" t="s">
         <v>123</v>
       </c>
       <c r="S24" s="7"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="47">
         <v>44836</v>
       </c>
-      <c r="E25" s="67"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="45"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="45"/>
+      <c r="M25" s="49"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="45"/>
+      <c r="O25" s="49"/>
       <c r="P25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="48"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="7"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="89">
+      <c r="D26" s="47">
         <v>44837</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="46"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="46"/>
+      <c r="M26" s="50"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="46"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="49"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="66"/>
       <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="53" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="46">
         <v>44829</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="57" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="59" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="10"/>
@@ -2695,87 +2696,87 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="44" t="s">
+      <c r="M27" s="59" t="s">
         <v>71</v>
       </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="44" t="s">
+      <c r="O27" s="59" t="s">
         <v>27</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Q27" s="44" t="s">
+      <c r="Q27" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="R27" s="47" t="s">
+      <c r="R27" s="65" t="s">
         <v>131</v>
       </c>
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="88">
+      <c r="D28" s="46">
         <v>44830</v>
       </c>
-      <c r="E28" s="67"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="45"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
-      <c r="M28" s="45"/>
+      <c r="M28" s="49"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="45"/>
+      <c r="O28" s="49"/>
       <c r="P28" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="48"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="69"/>
       <c r="S28" s="7"/>
     </row>
     <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D29" s="88">
+      <c r="D29" s="46">
         <v>44831</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="45"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
-      <c r="M29" s="45"/>
+      <c r="M29" s="49"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="45"/>
+      <c r="O29" s="49"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="66"/>
       <c r="S29" s="7"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="46">
         <v>44828</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -2799,12 +2800,12 @@
       <c r="S30" s="7"/>
     </row>
     <row r="31" spans="1:19" ht="146.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="87" t="s">
+      <c r="A31" s="78"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="88">
+      <c r="D31" s="46">
         <v>44832</v>
       </c>
       <c r="E31" s="14" t="s">
@@ -2832,12 +2833,12 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="87" t="s">
+      <c r="A32" s="78"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="88">
+      <c r="D32" s="46">
         <v>44832</v>
       </c>
       <c r="E32" s="14" t="s">
@@ -2861,12 +2862,12 @@
       <c r="S32" s="7"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="87" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="88">
+      <c r="D33" s="46">
         <v>44832</v>
       </c>
       <c r="E33" s="14" t="s">
@@ -2890,12 +2891,12 @@
       <c r="S33" s="7"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="87" t="s">
+      <c r="A34" s="78"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="88">
+      <c r="D34" s="46">
         <v>44832</v>
       </c>
       <c r="E34" s="14" t="s">
@@ -2919,12 +2920,12 @@
       <c r="S34" s="7"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="87" t="s">
+      <c r="A35" s="78"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="88">
+      <c r="D35" s="46">
         <v>44832</v>
       </c>
       <c r="E35" s="14" t="s">
@@ -2948,12 +2949,12 @@
       <c r="S35" s="7"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="87" t="s">
+      <c r="A36" s="78"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="88">
+      <c r="D36" s="46">
         <v>44832</v>
       </c>
       <c r="E36" s="14" t="s">
@@ -2977,12 +2978,12 @@
       <c r="S36" s="7"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="87" t="s">
+      <c r="A37" s="78"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="88">
+      <c r="D37" s="46">
         <v>44832</v>
       </c>
       <c r="E37" s="14" t="s">
@@ -3006,12 +3007,12 @@
       <c r="S37" s="7"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="87" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="46">
         <v>44832</v>
       </c>
       <c r="E38" s="14" t="s">
@@ -3035,12 +3036,12 @@
       <c r="S38" s="7"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="87" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="88">
+      <c r="D39" s="46">
         <v>44828</v>
       </c>
       <c r="E39" s="14" t="s">
@@ -3064,21 +3065,21 @@
       <c r="S39" s="7"/>
     </row>
     <row r="40" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="54" t="s">
+      <c r="A40" s="78"/>
+      <c r="B40" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="88">
+      <c r="C40" s="82"/>
+      <c r="D40" s="46">
         <v>44831</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="57"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="14" t="s">
         <v>161</v>
       </c>
@@ -3097,15 +3098,15 @@
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="88">
+      <c r="A41" s="78"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="46">
         <v>44831</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="87"/>
       <c r="H41" s="33" t="s">
         <v>163</v>
       </c>
@@ -3124,12 +3125,12 @@
       <c r="S41" s="7"/>
     </row>
     <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="88">
+      <c r="C42" s="44"/>
+      <c r="D42" s="46">
         <v>44828</v>
       </c>
       <c r="E42" s="14"/>
@@ -3144,25 +3145,25 @@
       </c>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
-      <c r="M42" s="60" t="s">
+      <c r="M42" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="62"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="90"/>
       <c r="S42" s="7"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="88">
+      <c r="D43" s="46">
         <v>44832</v>
       </c>
       <c r="E43" s="14"/>
@@ -3184,12 +3185,12 @@
       <c r="S43" s="7"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="88">
+      <c r="C44" s="44"/>
+      <c r="D44" s="46">
         <v>44832</v>
       </c>
       <c r="E44" s="14"/>
@@ -3212,41 +3213,46 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="A30:A44"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="R14:R19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="H14:H19"/>
     <mergeCell ref="R11:R13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -3263,49 +3269,57 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="Q14:Q19"/>
-    <mergeCell ref="R14:R19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="A30:A44"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="M42:R42"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>